--- a/storage/imports/products_import.xlsx
+++ b/storage/imports/products_import.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12214"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="22695" windowHeight="15195"/>
   </bookViews>
   <sheets>
-    <sheet name="products_export_1473044609" sheetId="1" r:id="rId1"/>
+    <sheet name="Ian please add" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="73">
   <si>
     <t>id</t>
   </si>
@@ -85,6 +85,9 @@
     <t>shipping_weight</t>
   </si>
   <si>
+    <t>actual_weight</t>
+  </si>
+  <si>
     <t>shipping_container</t>
   </si>
   <si>
@@ -121,86 +124,122 @@
     <t>rrp</t>
   </si>
   <si>
+    <t>product_note</t>
+  </si>
+  <si>
+    <t>updated_at</t>
+  </si>
+  <si>
+    <t>created_at</t>
+  </si>
+  <si>
+    <t>Skivvy</t>
+  </si>
+  <si>
+    <t>20cm</t>
+  </si>
+  <si>
+    <t>K9S20-tqb</t>
+  </si>
+  <si>
     <t>n</t>
   </si>
   <si>
-    <t>FFFFFF</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
     <t>pending</t>
   </si>
   <si>
-    <t>9cm</t>
-  </si>
-  <si>
-    <t>6pcs</t>
-  </si>
-  <si>
-    <t>12cm</t>
-  </si>
-  <si>
-    <t>XMK9320</t>
-  </si>
-  <si>
-    <t>XMHZ204</t>
-  </si>
-  <si>
-    <t>XMHZ205</t>
-  </si>
-  <si>
-    <t>XMHZ202</t>
-  </si>
-  <si>
-    <t>XMHZ201</t>
-  </si>
-  <si>
-    <t>XMHZ203</t>
-  </si>
-  <si>
-    <t>Rawhide Munchy Christmas Stocking</t>
-  </si>
-  <si>
-    <t>290gsm</t>
-  </si>
-  <si>
-    <t>Xmas</t>
-  </si>
-  <si>
-    <t>Dog Christmas Stocking</t>
-  </si>
-  <si>
-    <t>Latex Father Christmas with Squeak</t>
-  </si>
-  <si>
-    <t>Latex Mouse Christmas with Squeak</t>
-  </si>
-  <si>
-    <t>Latex Dog Toys</t>
-  </si>
-  <si>
-    <t>Christmas Dog Toy Stocking</t>
-  </si>
-  <si>
-    <t>4pc</t>
-  </si>
-  <si>
-    <t>Christmas Mice</t>
-  </si>
-  <si>
-    <t>Christmas Cat Toy Stocking</t>
-  </si>
-  <si>
-    <t>Cat Christmas Stocking</t>
+    <t>Turquoise Blue</t>
+  </si>
+  <si>
+    <t>59CBE8</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>0000-00-00 00:00:00</t>
+  </si>
+  <si>
+    <t>25cm</t>
+  </si>
+  <si>
+    <t>K9S25-tqb</t>
+  </si>
+  <si>
+    <t>30cm</t>
+  </si>
+  <si>
+    <t>K9S30-tqb</t>
+  </si>
+  <si>
+    <t>35cm</t>
+  </si>
+  <si>
+    <t>K9S35-tqb</t>
+  </si>
+  <si>
+    <t>40cm</t>
+  </si>
+  <si>
+    <t>K9S40-tqb</t>
+  </si>
+  <si>
+    <t>45cm</t>
+  </si>
+  <si>
+    <t>K9S45-tqb</t>
+  </si>
+  <si>
+    <t>50cm</t>
+  </si>
+  <si>
+    <t>K9S50-tqb</t>
+  </si>
+  <si>
+    <t>55cm</t>
+  </si>
+  <si>
+    <t>K9S55-tqb</t>
+  </si>
+  <si>
+    <t>60cm</t>
+  </si>
+  <si>
+    <t>K9S60-tqb</t>
+  </si>
+  <si>
+    <t>70cm</t>
+  </si>
+  <si>
+    <t>K9S70-tqb</t>
+  </si>
+  <si>
+    <t>Long Neck Skivvy</t>
+  </si>
+  <si>
+    <t>DCLN40-tqb</t>
+  </si>
+  <si>
+    <t>DCLN50-tqb</t>
+  </si>
+  <si>
+    <t>DCLN60-tqb</t>
+  </si>
+  <si>
+    <t>DCLN70-tqb</t>
+  </si>
+  <si>
+    <t>80cm</t>
+  </si>
+  <si>
+    <t>DCLN80-tqb</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="19">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -262,7 +301,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C5700"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -331,12 +370,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -661,37 +694,32 @@
     <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -767,7 +795,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -779,7 +807,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -1047,30 +1075,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ7"/>
+  <dimension ref="B1:AN16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A2:XFD22"/>
+    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="AQ1" sqref="AQ1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6"/>
-  <cols>
-    <col min="2" max="2" width="9.3828125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.15234375" customWidth="1"/>
-    <col min="5" max="5" width="9.3828125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.15234375" customWidth="1"/>
-    <col min="7" max="7" width="24.07421875" customWidth="1"/>
-    <col min="8" max="13" width="9.3828125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.3828125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.69140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="24" width="9.3828125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.3046875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.3828125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13.15234375" style="3" bestFit="1" customWidth="1"/>
-    <col min="33" max="36" width="9.3828125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:36">
+    <row r="1" spans="2:40">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1146,7 +1159,7 @@
       <c r="Z1" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AA1" t="s">
         <v>25</v>
       </c>
       <c r="AB1" t="s">
@@ -1176,563 +1189,1580 @@
       <c r="AJ1" t="s">
         <v>34</v>
       </c>
+      <c r="AK1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="2" spans="1:36" s="1" customFormat="1">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="2:40">
+      <c r="C2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2">
+        <v>1335</v>
+      </c>
+      <c r="F2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2">
+        <v>19</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2" t="s">
+        <v>42</v>
+      </c>
+      <c r="O2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P2" s="1">
+        <v>43621.375</v>
+      </c>
+      <c r="Q2">
+        <v>226</v>
+      </c>
+      <c r="R2" s="2">
+        <v>43621</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>1000</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
+      </c>
+      <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <v>2592</v>
+      </c>
+      <c r="AM2" s="1">
+        <v>43621.38958333333</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="2:40">
+      <c r="C3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3">
+        <v>1447</v>
+      </c>
+      <c r="F3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3">
+        <v>19</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3" t="s">
+        <v>42</v>
+      </c>
+      <c r="O3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P3" s="1">
+        <v>43621.375</v>
+      </c>
+      <c r="Q3">
+        <v>245</v>
+      </c>
+      <c r="R3" s="2">
+        <v>43621</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>900</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
+      </c>
+      <c r="AJ3">
+        <v>0</v>
+      </c>
+      <c r="AK3">
+        <v>2810</v>
+      </c>
+      <c r="AM3" s="1">
+        <v>43621.38958333333</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="2:40">
+      <c r="C4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E2" s="1">
-        <v>345</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="E4">
+        <v>1571</v>
+      </c>
+      <c r="F4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G4">
+        <v>19</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4" t="s">
         <v>42</v>
       </c>
-      <c r="G2" s="1">
-        <v>750</v>
-      </c>
-      <c r="H2" s="1">
-        <v>24</v>
-      </c>
-      <c r="I2" s="1">
-        <v>15</v>
-      </c>
-      <c r="J2" s="1">
-        <v>448</v>
-      </c>
-      <c r="K2" s="1">
-        <v>0</v>
-      </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
-      <c r="M2" s="1">
-        <v>0</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q2" s="1">
-        <v>795</v>
-      </c>
-      <c r="R2" s="2">
-        <v>42252</v>
-      </c>
-      <c r="T2" s="1">
-        <v>0</v>
-      </c>
-      <c r="U2" s="1">
-        <v>0</v>
-      </c>
-      <c r="V2" s="1">
-        <v>0</v>
-      </c>
-      <c r="W2" s="1">
-        <v>0</v>
-      </c>
-      <c r="X2" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y2" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z2" s="1">
-        <v>10</v>
-      </c>
-      <c r="AA2" s="4">
-        <v>932222901931</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ2" s="1">
-        <v>759</v>
+      <c r="O4" t="s">
+        <v>43</v>
+      </c>
+      <c r="P4" s="1">
+        <v>43621.375</v>
+      </c>
+      <c r="Q4">
+        <v>266</v>
+      </c>
+      <c r="R4" s="2">
+        <v>43621</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>790</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>3050</v>
+      </c>
+      <c r="AM4" s="1">
+        <v>43621.38958333333</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:36" s="1" customFormat="1">
-      <c r="A3" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" s="1" t="s">
+    <row r="5" spans="2:40">
+      <c r="C5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" t="s">
         <v>52</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E3" s="1">
-        <v>315</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="E5">
+        <v>1848</v>
+      </c>
+      <c r="F5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G5">
+        <v>19</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5" t="s">
+        <v>42</v>
+      </c>
+      <c r="O5" t="s">
         <v>43</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="P5" s="1">
+        <v>43621.375</v>
+      </c>
+      <c r="Q5">
+        <v>313</v>
+      </c>
+      <c r="R5" s="2">
+        <v>43621</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>700</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>3588</v>
+      </c>
+      <c r="AM5" s="1">
+        <v>43621.38958333333</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="2:40">
+      <c r="C6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" t="s">
         <v>54</v>
       </c>
-      <c r="H3" s="1">
-        <v>36</v>
-      </c>
-      <c r="I3" s="1">
-        <v>15</v>
-      </c>
-      <c r="J3" s="1">
-        <v>720</v>
-      </c>
-      <c r="K3" s="1">
-        <v>0</v>
-      </c>
-      <c r="L3" s="1">
-        <v>0</v>
-      </c>
-      <c r="M3" s="1">
-        <v>0</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q3" s="1">
-        <v>84</v>
-      </c>
-      <c r="R3" s="2">
-        <v>42252</v>
-      </c>
-      <c r="T3" s="1">
-        <v>0</v>
-      </c>
-      <c r="U3" s="1">
-        <v>0</v>
-      </c>
-      <c r="V3" s="1">
-        <v>0</v>
-      </c>
-      <c r="W3" s="1">
-        <v>0</v>
-      </c>
-      <c r="X3" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="1">
-        <v>20</v>
-      </c>
-      <c r="AA3" s="4">
-        <v>932222901865</v>
-      </c>
-      <c r="AC3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ3" s="1">
-        <v>693</v>
+      <c r="E6">
+        <v>2008</v>
+      </c>
+      <c r="F6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G6">
+        <v>19</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6" t="s">
+        <v>42</v>
+      </c>
+      <c r="O6" t="s">
+        <v>43</v>
+      </c>
+      <c r="P6" s="1">
+        <v>43621.375</v>
+      </c>
+      <c r="Q6">
+        <v>340</v>
+      </c>
+      <c r="R6" s="2">
+        <v>43621</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>600</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
+      </c>
+      <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <v>3988</v>
+      </c>
+      <c r="AM6" s="1">
+        <v>43621.38958333333</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:36" s="1" customFormat="1">
-      <c r="A4" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D4" s="1" t="s">
+    <row r="7" spans="2:40">
+      <c r="C7" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="1">
-        <v>295</v>
-      </c>
-      <c r="F4" s="1" t="s">
+      <c r="D7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7">
+        <v>2102</v>
+      </c>
+      <c r="F7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G7">
+        <v>19</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7" t="s">
+        <v>42</v>
+      </c>
+      <c r="O7" t="s">
+        <v>43</v>
+      </c>
+      <c r="P7" s="1">
+        <v>43621.375</v>
+      </c>
+      <c r="Q7">
+        <v>356</v>
+      </c>
+      <c r="R7" s="2">
+        <v>43621</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>500</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="AD7" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
+      </c>
+      <c r="AJ7">
+        <v>0</v>
+      </c>
+      <c r="AK7">
+        <v>4082</v>
+      </c>
+      <c r="AM7" s="1">
+        <v>43621.38958333333</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="2:40">
+      <c r="C8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8">
+        <v>2847</v>
+      </c>
+      <c r="F8" t="s">
+        <v>59</v>
+      </c>
+      <c r="G8">
+        <v>19</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8" t="s">
+        <v>42</v>
+      </c>
+      <c r="O8" t="s">
+        <v>43</v>
+      </c>
+      <c r="P8" s="1">
+        <v>43621.375</v>
+      </c>
+      <c r="Q8">
+        <v>482</v>
+      </c>
+      <c r="R8" s="2">
+        <v>43621</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>400</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
+      </c>
+      <c r="AJ8">
+        <v>0</v>
+      </c>
+      <c r="AK8">
+        <v>5528</v>
+      </c>
+      <c r="AM8" s="1">
+        <v>43621.38958333333</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="2:40">
+      <c r="C9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E9">
+        <v>3124</v>
+      </c>
+      <c r="F9" t="s">
+        <v>61</v>
+      </c>
+      <c r="G9">
+        <v>19</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9" t="s">
+        <v>42</v>
+      </c>
+      <c r="O9" t="s">
+        <v>43</v>
+      </c>
+      <c r="P9" s="1">
+        <v>43621.375</v>
+      </c>
+      <c r="Q9">
+        <v>514</v>
+      </c>
+      <c r="R9" s="2">
+        <v>43621</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>300</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
+      </c>
+      <c r="AJ9">
+        <v>0</v>
+      </c>
+      <c r="AK9">
+        <v>6066</v>
+      </c>
+      <c r="AM9" s="1">
+        <v>43621.38958333333</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="2:40">
+      <c r="C10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10">
+        <v>3219</v>
+      </c>
+      <c r="F10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G10">
+        <v>19</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10" t="s">
+        <v>42</v>
+      </c>
+      <c r="O10" t="s">
+        <v>43</v>
+      </c>
+      <c r="P10" s="1">
+        <v>43621.375</v>
+      </c>
+      <c r="Q10">
+        <v>545</v>
+      </c>
+      <c r="R10" s="2">
+        <v>43621</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>200</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
+      </c>
+      <c r="AJ10">
+        <v>0</v>
+      </c>
+      <c r="AK10">
+        <v>6250</v>
+      </c>
+      <c r="AM10" s="1">
+        <v>43621.38958333333</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="2:40">
+      <c r="C11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11">
+        <v>3489</v>
+      </c>
+      <c r="F11" t="s">
+        <v>65</v>
+      </c>
+      <c r="G11">
+        <v>19</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11" t="s">
+        <v>42</v>
+      </c>
+      <c r="O11" t="s">
+        <v>43</v>
+      </c>
+      <c r="P11" s="1">
+        <v>43621.375</v>
+      </c>
+      <c r="Q11">
+        <v>591</v>
+      </c>
+      <c r="R11" s="2">
+        <v>43621</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <v>100</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
+      </c>
+      <c r="AJ11">
+        <v>0</v>
+      </c>
+      <c r="AK11">
+        <v>6774</v>
+      </c>
+      <c r="AM11" s="1">
+        <v>43621.38958333333</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="2:40">
+      <c r="C12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" t="s">
         <v>54</v>
       </c>
-      <c r="H4" s="1">
-        <v>36</v>
-      </c>
-      <c r="I4" s="1">
-        <v>15</v>
-      </c>
-      <c r="J4" s="1">
-        <v>720</v>
-      </c>
-      <c r="K4" s="1">
-        <v>0</v>
-      </c>
-      <c r="L4" s="1">
-        <v>0</v>
-      </c>
-      <c r="M4" s="1">
-        <v>0</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q4" s="1">
+      <c r="E12">
+        <v>2548</v>
+      </c>
+      <c r="F12" t="s">
+        <v>67</v>
+      </c>
+      <c r="G12">
+        <v>467</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12" t="s">
+        <v>42</v>
+      </c>
+      <c r="O12" t="s">
+        <v>43</v>
+      </c>
+      <c r="P12" s="1">
+        <v>43621.375</v>
+      </c>
+      <c r="Q12">
+        <v>957</v>
+      </c>
+      <c r="R12" s="2">
+        <v>43621</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>525</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
+      </c>
+      <c r="AJ12">
+        <v>0</v>
+      </c>
+      <c r="AK12">
+        <v>4948</v>
+      </c>
+      <c r="AM12" s="1">
+        <v>43621.375</v>
+      </c>
+      <c r="AN12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="2:40">
+      <c r="C13" t="s">
         <v>66</v>
       </c>
-      <c r="R4" s="2">
-        <v>42252</v>
-      </c>
-      <c r="T4" s="1">
-        <v>0</v>
-      </c>
-      <c r="U4" s="1">
-        <v>0</v>
-      </c>
-      <c r="V4" s="1">
-        <v>0</v>
-      </c>
-      <c r="W4" s="1">
-        <v>0</v>
-      </c>
-      <c r="X4" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="1">
-        <v>10</v>
-      </c>
-      <c r="AA4" s="4">
-        <v>932222901866</v>
-      </c>
-      <c r="AC4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ4" s="1">
-        <v>649</v>
+      <c r="D13" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13">
+        <v>2874</v>
+      </c>
+      <c r="F13" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13">
+        <v>467</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13" t="s">
+        <v>42</v>
+      </c>
+      <c r="O13" t="s">
+        <v>43</v>
+      </c>
+      <c r="P13" s="1">
+        <v>43621.375</v>
+      </c>
+      <c r="Q13">
+        <v>1080</v>
+      </c>
+      <c r="R13" s="2">
+        <v>43621</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <v>425</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
+      </c>
+      <c r="AJ13">
+        <v>0</v>
+      </c>
+      <c r="AK13">
+        <v>5582</v>
+      </c>
+      <c r="AM13" s="1">
+        <v>43621.375</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:36" s="1" customFormat="1">
-      <c r="A5" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E5" s="1">
-        <v>545</v>
-      </c>
-      <c r="F5" s="1" t="s">
+    <row r="14" spans="2:40">
+      <c r="C14" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14">
+        <v>3108</v>
+      </c>
+      <c r="F14" t="s">
+        <v>69</v>
+      </c>
+      <c r="G14">
+        <v>467</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14" t="s">
+        <v>42</v>
+      </c>
+      <c r="O14" t="s">
+        <v>43</v>
+      </c>
+      <c r="P14" s="1">
+        <v>43621.375</v>
+      </c>
+      <c r="Q14">
+        <v>1167</v>
+      </c>
+      <c r="R14" s="2">
+        <v>43621</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <v>325</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD14" t="s">
         <v>45</v>
       </c>
-      <c r="G5" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="H5" s="1">
-        <v>48</v>
-      </c>
-      <c r="I5" s="1">
-        <v>15</v>
-      </c>
-      <c r="J5" s="1">
-        <v>1440</v>
-      </c>
-      <c r="K5" s="1">
-        <v>0</v>
-      </c>
-      <c r="L5" s="1">
-        <v>0</v>
-      </c>
-      <c r="M5" s="1">
-        <v>0</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q5" s="1">
-        <v>133</v>
-      </c>
-      <c r="R5" s="2">
-        <v>42252</v>
-      </c>
-      <c r="T5" s="1">
-        <v>0</v>
-      </c>
-      <c r="U5" s="1">
-        <v>0</v>
-      </c>
-      <c r="V5" s="1">
-        <v>0</v>
-      </c>
-      <c r="W5" s="1">
-        <v>0</v>
-      </c>
-      <c r="X5" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="4">
-        <v>932222901863</v>
-      </c>
-      <c r="AC5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ5" s="1">
-        <v>1199</v>
+      <c r="AG14" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
+      </c>
+      <c r="AJ14">
+        <v>0</v>
+      </c>
+      <c r="AK14">
+        <v>6034</v>
+      </c>
+      <c r="AM14" s="1">
+        <v>43621.375</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:36" s="1" customFormat="1">
-      <c r="A6" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" s="1">
-        <v>295</v>
-      </c>
-      <c r="F6" s="1" t="s">
+    <row r="15" spans="2:40">
+      <c r="C15" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15">
+        <v>3864</v>
+      </c>
+      <c r="F15" t="s">
+        <v>70</v>
+      </c>
+      <c r="G15">
+        <v>467</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15" t="s">
+        <v>42</v>
+      </c>
+      <c r="O15" t="s">
+        <v>43</v>
+      </c>
+      <c r="P15" s="1">
+        <v>43621.375</v>
+      </c>
+      <c r="Q15">
+        <v>1451</v>
+      </c>
+      <c r="R15" s="2">
+        <v>43621</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <v>225</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG15" t="s">
         <v>46</v>
       </c>
-      <c r="G6" s="1">
-        <v>693</v>
-      </c>
-      <c r="H6" s="1">
-        <v>36</v>
-      </c>
-      <c r="I6" s="1">
-        <v>15</v>
-      </c>
-      <c r="J6" s="1">
-        <v>1440</v>
-      </c>
-      <c r="K6" s="1">
-        <v>0</v>
-      </c>
-      <c r="L6" s="1">
-        <v>0</v>
-      </c>
-      <c r="M6" s="1">
-        <v>0</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q6" s="1">
-        <v>33</v>
-      </c>
-      <c r="R6" s="2">
-        <v>42252</v>
-      </c>
-      <c r="T6" s="1">
-        <v>0</v>
-      </c>
-      <c r="U6" s="1">
-        <v>0</v>
-      </c>
-      <c r="V6" s="1">
-        <v>0</v>
-      </c>
-      <c r="W6" s="1">
-        <v>0</v>
-      </c>
-      <c r="X6" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="1">
-        <v>20</v>
-      </c>
-      <c r="AA6" s="4">
-        <v>932222901864</v>
-      </c>
-      <c r="AC6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ6" s="1">
-        <v>649</v>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
+      </c>
+      <c r="AJ15">
+        <v>0</v>
+      </c>
+      <c r="AK15">
+        <v>7502</v>
+      </c>
+      <c r="AM15" s="1">
+        <v>43621.375</v>
+      </c>
+      <c r="AN15" t="s">
+        <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:36" s="1" customFormat="1">
-      <c r="A7" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7" s="1">
-        <v>475</v>
-      </c>
-      <c r="F7" s="1" t="s">
+    <row r="16" spans="2:40">
+      <c r="C16" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" t="s">
+        <v>71</v>
+      </c>
+      <c r="E16">
+        <v>4169</v>
+      </c>
+      <c r="F16" t="s">
+        <v>72</v>
+      </c>
+      <c r="G16">
+        <v>467</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16" t="s">
+        <v>42</v>
+      </c>
+      <c r="O16" t="s">
+        <v>43</v>
+      </c>
+      <c r="P16" s="1">
+        <v>43621.375</v>
+      </c>
+      <c r="Q16">
+        <v>1566</v>
+      </c>
+      <c r="R16" s="2">
+        <v>43621</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>125</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
+      </c>
+      <c r="AJ16">
+        <v>0</v>
+      </c>
+      <c r="AK16">
+        <v>8096</v>
+      </c>
+      <c r="AM16" s="1">
+        <v>43621.375</v>
+      </c>
+      <c r="AN16" t="s">
         <v>47</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="H7" s="1">
-        <v>48</v>
-      </c>
-      <c r="I7" s="1">
-        <v>15</v>
-      </c>
-      <c r="J7" s="1">
-        <v>1008</v>
-      </c>
-      <c r="K7" s="1">
-        <v>0</v>
-      </c>
-      <c r="L7" s="1">
-        <v>0</v>
-      </c>
-      <c r="M7" s="1">
-        <v>0</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q7" s="1">
-        <v>89</v>
-      </c>
-      <c r="R7" s="2">
-        <v>42252</v>
-      </c>
-      <c r="T7" s="1">
-        <v>0</v>
-      </c>
-      <c r="U7" s="1">
-        <v>0</v>
-      </c>
-      <c r="V7" s="1">
-        <v>0</v>
-      </c>
-      <c r="W7" s="1">
-        <v>0</v>
-      </c>
-      <c r="X7" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="1">
-        <v>10</v>
-      </c>
-      <c r="AA7" s="4">
-        <v>932222901697</v>
-      </c>
-      <c r="AC7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ7" s="1">
-        <v>1045</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="B2:AJ2232">
-    <sortCondition ref="F2:F2232"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>